--- a/source/projects/py/tests/xlsx/jit_matrix_analysis.xlsx
+++ b/source/projects/py/tests/xlsx/jit_matrix_analysis.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/projects/py-js/source/projects/py/tests/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B7932-0166-DD40-9911-D6FD2C1897A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF180CA-BEDF-A343-8C5E-7CAFADBB9D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1280" windowWidth="24540" windowHeight="16460" xr2:uid="{6ED8B03E-9463-3F41-9F11-54EDB3A16A4F}"/>
+    <workbookView xWindow="2880" yWindow="1060" windowWidth="24100" windowHeight="16200" activeTab="1" xr2:uid="{6ED8B03E-9463-3F41-9F11-54EDB3A16A4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="2D" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>type</t>
   </si>
@@ -47,9 +48,6 @@
     <t>flags</t>
   </si>
   <si>
-    <t>dimcount</t>
-  </si>
-  <si>
     <t>planecount</t>
   </si>
   <si>
@@ -77,14 +75,53 @@
     <t>size</t>
   </si>
   <si>
-    <t>check1</t>
+    <t>ncols</t>
+  </si>
+  <si>
+    <t>nrows</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>actual_size</t>
+  </si>
+  <si>
+    <t>unpadded</t>
+  </si>
+  <si>
+    <t>padded</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>planecount * itemsize</t>
+  </si>
+  <si>
+    <t>ncols * dimstride[0]</t>
+  </si>
+  <si>
+    <t>product(dim)</t>
+  </si>
+  <si>
+    <t>plane_len * planecount</t>
+  </si>
+  <si>
+    <t>product(dim) * itemsize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,13 +135,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,7 +182,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -145,6 +213,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6BF2D9-81A2-B6AE-A049-45E6E739A797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="241300"/>
+          <a:ext cx="7772400" cy="2430485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,225 +580,722 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EE6495-6918-A843-92C7-F52D1A766451}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4364E11-3718-4D4D-B424-D9AD3CA6CC4D}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4*D4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5">
+        <f>B4*G4</f>
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <f>B4*C4</f>
+        <v>80</v>
+      </c>
+      <c r="K4" s="2">
+        <f>J4*D4</f>
+        <v>80</v>
+      </c>
+      <c r="L4" s="5">
+        <f>N4-M4</f>
+        <v>80</v>
+      </c>
+      <c r="M4" s="2">
+        <f>PRODUCT(B4:D4) * F4</f>
+        <v>80</v>
+      </c>
+      <c r="N4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G15" si="0">F5*D5</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I15" si="1">B5*G5</f>
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <f>B5*C5</f>
+        <v>80</v>
+      </c>
+      <c r="K5" s="2">
+        <f>J5*D5</f>
+        <v>160</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L7" si="2">N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f>PRODUCT(B5:D5) * F5</f>
+        <v>160</v>
+      </c>
+      <c r="N5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
+        <f>B6*C6</f>
+        <v>80</v>
+      </c>
+      <c r="K6" s="2">
+        <f>J6*D6</f>
+        <v>240</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M6" s="2">
+        <f>PRODUCT(B6:D6) * F6</f>
+        <v>240</v>
+      </c>
+      <c r="N6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J7" s="2">
+        <f>B7*C7</f>
+        <v>80</v>
+      </c>
+      <c r="K7" s="2">
+        <f>J7*D7</f>
+        <v>320</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>PRODUCT(B7:D7) * F7</f>
+        <v>320</v>
+      </c>
+      <c r="N7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J8" s="3">
+        <f>B8*C8</f>
+        <v>80</v>
+      </c>
+      <c r="K8" s="3">
+        <f>J8*D8</f>
+        <v>80</v>
+      </c>
+      <c r="L8" s="3">
+        <f>N8-M8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f>PRODUCT(B8:D8) * F8</f>
+        <v>320</v>
+      </c>
+      <c r="N8" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J9" s="3">
+        <f>B9*C9</f>
+        <v>80</v>
+      </c>
+      <c r="K9" s="3">
+        <f>J9*D9</f>
         <v>160</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="L9" s="3">
+        <f t="shared" ref="L9:L11" si="3">N9-M9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f>PRODUCT(B9:D9) * F9</f>
+        <v>640</v>
+      </c>
+      <c r="N9" s="4">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
+        <v>96</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J10" s="3">
+        <f>B10*C10</f>
+        <v>80</v>
+      </c>
+      <c r="K10" s="3">
+        <f>J10*D10</f>
+        <v>240</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f>PRODUCT(B10:D10) * F10</f>
+        <v>960</v>
+      </c>
+      <c r="N10" s="4">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H11" s="3">
+        <v>128</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="J11" s="3">
+        <f>B11*C11</f>
+        <v>80</v>
+      </c>
+      <c r="K11" s="3">
+        <f>J11*D11</f>
+        <v>320</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f>PRODUCT(B11:D11) * F11</f>
+        <v>1280</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J12" s="2">
+        <f>B12*C12</f>
+        <v>80</v>
+      </c>
+      <c r="K12" s="2">
+        <f>J12*D12</f>
+        <v>80</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12" si="4">N12-M12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f>PRODUCT(B12:D12) * F12</f>
+        <v>640</v>
+      </c>
+      <c r="N12">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H13" s="2">
+        <v>128</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="J13" s="2">
+        <f>B13*C13</f>
+        <v>80</v>
+      </c>
+      <c r="K13" s="2">
+        <f>J13*D13</f>
+        <v>160</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13:L15" si="5">N13-M13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>PRODUCT(B13:D13) * F13</f>
+        <v>1280</v>
+      </c>
+      <c r="N13">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H14" s="2">
+        <v>192</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="J14" s="2">
+        <f>B14*C14</f>
+        <v>80</v>
+      </c>
+      <c r="K14" s="2">
+        <f>J14*D14</f>
+        <v>240</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <f>PRODUCT(B14:D14) * F14</f>
+        <v>1920</v>
+      </c>
+      <c r="N14">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>100</v>
-      </c>
-      <c r="L2" s="2">
-        <v>100</v>
-      </c>
-      <c r="M2" s="2">
-        <f>PRODUCT(E2,F2,I2) * J2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H15" s="2">
+        <v>256</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="J15" s="2">
+        <f>B15*C15</f>
+        <v>80</v>
+      </c>
+      <c r="K15" s="2">
+        <f>J15*D15</f>
         <v>320</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>100</v>
-      </c>
-      <c r="L3" s="3">
-        <v>200</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M5" si="0">PRODUCT(E3,F3,I3) * J3</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>320</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2">
-        <v>300</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>480</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>48</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>100</v>
-      </c>
-      <c r="L5" s="2">
-        <v>400</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <f>PRODUCT(B15:D15) * F15</f>
+        <v>2560</v>
+      </c>
+      <c r="N15">
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
